--- a/Data/EC/NIT-9013709775.xlsx
+++ b/Data/EC/NIT-9013709775.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D7B1008-0066-4C4B-B7AF-A0A7BF304E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{701F8779-A23F-4B67-8448-00160D3D0BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E468F200-3C54-459F-BDDC-0F7A714341CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{694D8A01-E355-42E4-A689-C6D312B95079}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,85 +65,127 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9290881</t>
+  </si>
+  <si>
+    <t>NAIRO MIGUEL MONTERO BARRIOS</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>3815201</t>
+  </si>
+  <si>
+    <t>ALEXI DE JESUS CASTRO ALFARO</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>9154251</t>
+  </si>
+  <si>
+    <t>EDGARDO MANUEL PADILLA ZUÑIGA</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>73561053</t>
+  </si>
+  <si>
+    <t>WALBERTO SERPA OROZCO</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>1051358284</t>
+  </si>
+  <si>
+    <t>LUIS CLEMENTE PEREA JARAMILLO</t>
+  </si>
+  <si>
+    <t>1051356831</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS CABALLERO PAEZ</t>
+  </si>
+  <si>
+    <t>73271663</t>
+  </si>
+  <si>
+    <t>JAIRO LUIS JARAMILLO MARTINEZ</t>
+  </si>
+  <si>
+    <t>1100628615</t>
+  </si>
+  <si>
+    <t>NOHELYS ANDREA ALMARIO TEHERAN</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>1137195468</t>
+  </si>
+  <si>
+    <t>SAMUEL ZABALETA ACOSTA</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>98512408</t>
+  </si>
+  <si>
+    <t>OSCAR ANTONIO ESPINOZA OSPINO</t>
+  </si>
+  <si>
+    <t>1002409924</t>
+  </si>
+  <si>
+    <t>KEVIN ARIAS PAJARO</t>
+  </si>
+  <si>
     <t>9159744</t>
   </si>
   <si>
     <t>DANIL JOSE BARRIOS ORIZCO</t>
   </si>
   <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>1002409924</t>
-  </si>
-  <si>
-    <t>KEVIN ARIAS PAJARO</t>
-  </si>
-  <si>
-    <t>73271663</t>
-  </si>
-  <si>
-    <t>JAIRO LUIS JARAMILLO MARTINEZ</t>
-  </si>
-  <si>
-    <t>3815201</t>
-  </si>
-  <si>
-    <t>ALEXI DE JESUS CASTRO ALFARO</t>
-  </si>
-  <si>
-    <t>1051356831</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS CABALLERO PAEZ</t>
-  </si>
-  <si>
-    <t>1051358284</t>
-  </si>
-  <si>
-    <t>LUIS CLEMENTE PEREA JARAMILLO</t>
-  </si>
-  <si>
-    <t>9154251</t>
-  </si>
-  <si>
-    <t>EDGARDO MANUEL PADILLA ZUÑIGA</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>73561053</t>
-  </si>
-  <si>
-    <t>WALBERTO SERPA OROZCO</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
     <t>1006854857</t>
   </si>
   <si>
     <t>CRISTIAN YESITH OSPINO TERAN</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>1137195468</t>
-  </si>
-  <si>
-    <t>SAMUEL ZABALETA ACOSTA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -557,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC425696-D438-7E9F-A057-9E650F83B0EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4A6751-3B80-0F2D-8579-D02DA6C82CD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,8 +950,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6073E1E7-EA2A-49A8-AC73-F8F7DA46CFF7}">
-  <dimension ref="B2:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929C51D1-FBD9-45FD-938E-7A29D2D625AF}">
+  <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -920,7 +962,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -933,7 +975,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -978,7 +1020,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1010,12 +1052,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>503813</v>
+        <v>987813</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1026,17 +1068,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1063,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1086,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1100,19 +1142,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1123,19 +1165,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="G18" s="18">
-        <v>1800000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1152,13 +1194,13 @@
         <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>32000</v>
+        <v>44000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1169,19 +1211,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>1600</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1192,19 +1234,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1215,16 +1257,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F22" s="18">
-        <v>44000</v>
+        <v>48000</v>
       </c>
       <c r="G22" s="18">
         <v>1100000</v>
@@ -1238,19 +1280,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="18">
-        <v>43200</v>
+        <v>48000</v>
       </c>
       <c r="G23" s="18">
-        <v>1250000</v>
+        <v>1100000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1261,19 +1303,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>48000</v>
+        <v>43200</v>
       </c>
       <c r="G24" s="18">
-        <v>1250000</v>
+        <v>1100000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1290,13 +1332,13 @@
         <v>26</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F25" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>1250000</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1307,19 +1349,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>1250000</v>
+        <v>908526</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1330,19 +1372,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
-        <v>1600</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>1250000</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1362,66 +1404,296 @@
         <v>33</v>
       </c>
       <c r="F28" s="18">
-        <v>17013</v>
+        <v>52000</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="F29" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="24">
+      <c r="F30" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="18">
         <v>22000</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G34" s="18">
         <v>1500000</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="18">
+        <v>48000</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1250000</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1250000</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
+      <c r="E37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="D38" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="24">
+        <v>17013</v>
+      </c>
+      <c r="G39" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="H44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="H45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H44:J44"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9013709775.xlsx
+++ b/Data/EC/NIT-9013709775.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{701F8779-A23F-4B67-8448-00160D3D0BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C451A5EE-CD5B-4591-976F-9AF78628E5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{694D8A01-E355-42E4-A689-C6D312B95079}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7ED702CA-1555-4B07-9A63-349F912E750C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,18 +65,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>9290881</t>
-  </si>
-  <si>
-    <t>NAIRO MIGUEL MONTERO BARRIOS</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
     <t>3815201</t>
   </si>
   <si>
@@ -86,6 +74,36 @@
     <t>2207</t>
   </si>
   <si>
+    <t>1051358284</t>
+  </si>
+  <si>
+    <t>LUIS CLEMENTE PEREA JARAMILLO</t>
+  </si>
+  <si>
+    <t>1051356831</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS CABALLERO PAEZ</t>
+  </si>
+  <si>
+    <t>73271663</t>
+  </si>
+  <si>
+    <t>JAIRO LUIS JARAMILLO MARTINEZ</t>
+  </si>
+  <si>
+    <t>1002409924</t>
+  </si>
+  <si>
+    <t>KEVIN ARIAS PAJARO</t>
+  </si>
+  <si>
+    <t>9159744</t>
+  </si>
+  <si>
+    <t>DANIL JOSE BARRIOS ORIZCO</t>
+  </si>
+  <si>
     <t>9154251</t>
   </si>
   <si>
@@ -101,60 +119,18 @@
     <t>WALBERTO SERPA OROZCO</t>
   </si>
   <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
     <t>2303</t>
   </si>
   <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>1051358284</t>
-  </si>
-  <si>
-    <t>LUIS CLEMENTE PEREA JARAMILLO</t>
-  </si>
-  <si>
-    <t>1051356831</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS CABALLERO PAEZ</t>
-  </si>
-  <si>
-    <t>73271663</t>
-  </si>
-  <si>
-    <t>JAIRO LUIS JARAMILLO MARTINEZ</t>
-  </si>
-  <si>
-    <t>1100628615</t>
-  </si>
-  <si>
-    <t>NOHELYS ANDREA ALMARIO TEHERAN</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
     <t>1137195468</t>
   </si>
   <si>
@@ -164,28 +140,19 @@
     <t>2304</t>
   </si>
   <si>
-    <t>98512408</t>
-  </si>
-  <si>
-    <t>OSCAR ANTONIO ESPINOZA OSPINO</t>
-  </si>
-  <si>
-    <t>1002409924</t>
-  </si>
-  <si>
-    <t>KEVIN ARIAS PAJARO</t>
-  </si>
-  <si>
-    <t>9159744</t>
-  </si>
-  <si>
-    <t>DANIL JOSE BARRIOS ORIZCO</t>
-  </si>
-  <si>
     <t>1006854857</t>
   </si>
   <si>
     <t>CRISTIAN YESITH OSPINO TERAN</t>
+  </si>
+  <si>
+    <t>1067030128</t>
+  </si>
+  <si>
+    <t>JORGE ARMANDO MENCO VILLARREAL</t>
+  </si>
+  <si>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -284,7 +251,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -297,9 +266,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -499,23 +466,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,10 +510,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4A6751-3B80-0F2D-8579-D02DA6C82CD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CBAD93-8D56-D4B5-DFE0-6AD5C0F19060}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,8 +917,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929C51D1-FBD9-45FD-938E-7A29D2D625AF}">
-  <dimension ref="B2:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB3D6DF-B3D1-461F-B3A9-815DD24A129E}">
+  <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -962,7 +929,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -975,7 +942,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1020,7 +987,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1052,12 +1019,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>987813</v>
+        <v>560753</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1068,17 +1035,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F13" s="5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1105,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1128,10 +1095,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>42000</v>
+        <v>32000</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1142,19 +1109,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1165,16 +1132,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
         <v>1000000</v>
@@ -1194,13 +1161,13 @@
         <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1211,19 +1178,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>1600</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1234,19 +1201,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1257,16 +1224,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" s="18">
-        <v>48000</v>
+        <v>44000</v>
       </c>
       <c r="G22" s="18">
         <v>1100000</v>
@@ -1280,19 +1247,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="18">
-        <v>48000</v>
+        <v>43200</v>
       </c>
       <c r="G23" s="18">
-        <v>1100000</v>
+        <v>1200000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1303,19 +1270,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F24" s="18">
-        <v>43200</v>
+        <v>48000</v>
       </c>
       <c r="G24" s="18">
-        <v>1100000</v>
+        <v>1200000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1332,13 +1299,13 @@
         <v>26</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1349,19 +1316,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>1200000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1372,19 +1339,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>1600</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1404,10 +1371,10 @@
         <v>33</v>
       </c>
       <c r="F28" s="18">
-        <v>52000</v>
+        <v>22000</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1418,282 +1385,75 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>17013</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="B30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="D30" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="16" t="s">
+      <c r="E30" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="18">
-        <v>22000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F30" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G30" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="18">
-        <v>48000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1250000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="B35" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1250000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="17" t="s">
+      <c r="B36" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="23" t="s">
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="24">
-        <v>17013</v>
-      </c>
-      <c r="G39" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="H44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="H45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9013709775.xlsx
+++ b/Data/EC/NIT-9013709775.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C451A5EE-CD5B-4591-976F-9AF78628E5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97A29D5E-2624-430C-A131-0832E142D75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7ED702CA-1555-4B07-9A63-349F912E750C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4642A28C-F165-429B-A413-4D504430BFD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -251,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -266,7 +267,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -460,29 +463,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,19 +504,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CBAD93-8D56-D4B5-DFE0-6AD5C0F19060}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3567AF6-2004-6FD3-2D7A-B577B2FCE924}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,8 +926,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB3D6DF-B3D1-461F-B3A9-815DD24A129E}">
-  <dimension ref="B2:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037CC854-ACDC-46AF-9B88-115A634E6F67}">
+  <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -940,57 +949,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9013709775</v>
       </c>
@@ -1019,12 +1028,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>560753</v>
+        <v>617693</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1035,17 +1044,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5">
         <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1072,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1091,18 +1100,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>32000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1000000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1114,18 +1123,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>40000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1000000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1137,18 +1146,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>40000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1000000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1160,18 +1169,18 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>40000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1183,18 +1192,18 @@
       <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>40000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1000000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1206,18 +1215,18 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>40000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1000000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1229,18 +1238,18 @@
       <c r="D22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>44000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1100000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1252,18 +1261,18 @@
       <c r="D23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>43200</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1200000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1275,18 +1284,18 @@
       <c r="D24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>48000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1200000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1298,18 +1307,18 @@
       <c r="D25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>48000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1200000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1321,18 +1330,18 @@
       <c r="D26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>48000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1200000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1344,18 +1353,18 @@
       <c r="D27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>1600</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1200000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1367,18 +1376,18 @@
       <c r="D28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>22000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1500000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1390,70 +1399,93 @@
       <c r="D29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>17013</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1160000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="19">
         <v>56940</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="19">
         <v>1423500</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="26">
+        <v>56940</v>
+      </c>
+      <c r="G31" s="26">
+        <v>1423500</v>
+      </c>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="32"/>
+      <c r="B36" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="34"/>
       <c r="H36" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="H37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H35:J35"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
